--- a/Excel/ServerInfoConfig@s.xlsx
+++ b/Excel/ServerInfoConfig@s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16095" windowHeight="12390"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="ServerInfoConfig" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,10 @@
     <t>string</t>
   </si>
   <si>
-    <t>红蜗牛</t>
+    <t>拳打敬老院</t>
   </si>
   <si>
-    <t>绿水灵</t>
+    <t>脚踢幼儿园</t>
   </si>
 </sst>
 </file>
@@ -1024,7 +1024,7 @@
   <dimension ref="C3:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>
